--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -396,10 +420,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -443,28 +467,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="3">
+      <c r="A11" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="3">
+      <c r="C11" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -489,28 +513,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="3">
+      <c r="B13" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="3">
+      <c r="C13" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="3">
+      <c r="D13" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="3">
+      <c r="E13" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="3">
+      <c r="F13" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="3">
+      <c r="G13" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="3">
+      <c r="H13" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="3">
+      <c r="I13" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -714,10 +738,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -761,28 +785,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="3">
+      <c r="A22" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="3">
+      <c r="C22" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="3">
+      <c r="F22" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="3">
+      <c r="G22" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="3">
+      <c r="H22" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -807,28 +831,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="3">
+      <c r="C24" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="3">
+      <c r="D24" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="3">
+      <c r="I24" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1003,10 +1027,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="J30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1050,28 +1074,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="3">
+      <c r="A32" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="3">
+      <c r="C32" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1096,28 +1120,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="3">
+      <c r="B34" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="3">
+      <c r="C34" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="3">
+      <c r="D34" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="3">
+      <c r="F34" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="3">
+      <c r="G34" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="3">
+      <c r="H34" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="3">
+      <c r="I34" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1263,10 +1287,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="J39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1310,28 +1334,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="3">
+      <c r="A41" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="3">
+      <c r="C41" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1356,28 +1380,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="3">
+      <c r="B43" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="3">
+      <c r="C43" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="3">
+      <c r="D43" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="3">
+      <c r="F43" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="3">
+      <c r="G43" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="3">
+      <c r="H43" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="3">
+      <c r="I43" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1523,10 +1547,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="J48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1570,28 +1594,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="3">
+      <c r="A50" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="3">
+      <c r="C50" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1616,28 +1640,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="3">
+      <c r="C52" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="3">
+      <c r="D52" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="3">
+      <c r="I52" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1870,10 +1894,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="3" t="s">
+      <c r="J60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1917,28 +1941,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="3">
+      <c r="A62" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="3">
+      <c r="B62" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="3">
+      <c r="C62" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="3">
+      <c r="F62" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="3">
+      <c r="G62" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="3">
+      <c r="H62" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1963,28 +1987,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="3">
+      <c r="B64" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="3">
+      <c r="C64" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="3">
+      <c r="D64" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="3">
+      <c r="F64" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="3">
+      <c r="G64" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="3">
+      <c r="I64" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2159,10 +2183,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="3" t="s">
+      <c r="J70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2206,28 +2230,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="3">
+      <c r="A72" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="3">
+      <c r="C72" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2252,28 +2276,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="3">
+      <c r="C74" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="3">
+      <c r="D74" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="3">
+      <c r="I74" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2477,10 +2501,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="3" t="s">
+      <c r="J81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2524,28 +2548,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="3">
+      <c r="A83" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="3">
+      <c r="B83" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="3">
+      <c r="C83" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="3">
+      <c r="F83" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="3">
+      <c r="G83" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="3">
+      <c r="H83" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2570,28 +2594,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="3">
+      <c r="C85" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="3">
+      <c r="D85" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="3">
+      <c r="I85" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2708,10 +2732,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="3" t="s">
+      <c r="J89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2755,28 +2779,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="3">
+      <c r="A91" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="3">
+      <c r="B91" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="3">
+      <c r="C91" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="3">
+      <c r="F91" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="3">
+      <c r="G91" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="3">
+      <c r="H91" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2801,28 +2825,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="3">
+      <c r="C93" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="3">
+      <c r="D93" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="3">
+      <c r="I93" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2910,10 +2934,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="3" t="s">
+      <c r="J96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2957,28 +2981,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="3">
+      <c r="A98" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="3">
+      <c r="B98" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="3">
+      <c r="C98" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="3">
+      <c r="E98" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="3">
+      <c r="F98" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="3">
+      <c r="G98" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="3">
+      <c r="H98" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3003,28 +3027,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="3">
+      <c r="B100" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="3">
+      <c r="C100" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="3">
+      <c r="D100" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="3">
+      <c r="F100" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="3">
+      <c r="G100" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="3">
+      <c r="H100" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="3">
+      <c r="I100" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3141,10 +3165,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="3" t="s">
+      <c r="J104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3188,28 +3212,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="3">
+      <c r="A106" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="3">
+      <c r="C106" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3234,28 +3258,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="3">
+      <c r="C108" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="3">
+      <c r="D108" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="3">
+      <c r="I108" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3372,10 +3396,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="3" t="s">
+      <c r="J112" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3419,28 +3443,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="3">
+      <c r="A114" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="3">
+      <c r="C114" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3465,28 +3489,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="3">
+      <c r="B116" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="3">
+      <c r="C116" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="3">
+      <c r="D116" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="3">
+      <c r="F116" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="3">
+      <c r="G116" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="3">
+      <c r="H116" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="3">
+      <c r="I116" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3661,10 +3685,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="3" t="s">
+      <c r="J122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3708,28 +3732,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="3">
+      <c r="A124" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="3">
+      <c r="C124" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3754,28 +3778,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="3">
+      <c r="B126" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="3">
+      <c r="C126" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="3">
+      <c r="D126" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="F126" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="3">
+      <c r="G126" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="3">
+      <c r="H126" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="3">
+      <c r="I126" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3863,10 +3887,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="3" t="s">
+      <c r="J129" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3910,28 +3934,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="3">
+      <c r="A131" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="3">
+      <c r="C131" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3956,28 +3980,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="3">
+      <c r="C133" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="3">
+      <c r="D133" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="3">
+      <c r="I133" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4094,10 +4118,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="3" t="s">
+      <c r="J137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4141,28 +4165,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="3">
+      <c r="A139" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="3">
+      <c r="C139" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4187,28 +4211,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="3">
+      <c r="C141" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="3">
+      <c r="D141" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="3">
+      <c r="I141" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4296,10 +4320,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3" t="s">
+      <c r="J144" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4343,28 +4367,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="A146" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="3">
+      <c r="C146" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4389,28 +4413,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="3">
+      <c r="I148" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4556,10 +4580,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="3" t="s">
+      <c r="J153" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4603,28 +4627,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="3">
+      <c r="A155" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="3">
+      <c r="B155" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="3">
+      <c r="C155" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="3">
+      <c r="E155" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="3">
+      <c r="F155" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="3">
+      <c r="G155" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="3">
+      <c r="H155" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4649,28 +4673,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="3">
+      <c r="B157" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="3">
+      <c r="C157" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="3">
+      <c r="D157" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="3">
+      <c r="F157" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="3">
+      <c r="G157" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="3">
+      <c r="H157" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="3">
+      <c r="I157" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4758,10 +4782,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="3" t="s">
+      <c r="J160" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4805,28 +4829,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="3">
+      <c r="A162" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="3">
+      <c r="C162" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4851,28 +4875,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="3">
+      <c r="B164" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="3">
+      <c r="C164" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="3">
+      <c r="D164" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="3">
+      <c r="E164" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="3">
+      <c r="F164" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="3">
+      <c r="G164" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="3">
+      <c r="H164" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="3">
+      <c r="I164" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4989,10 +5013,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="3" t="s">
+      <c r="J168" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5036,28 +5060,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="3">
+      <c r="A170" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="3">
+      <c r="B170" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="3">
+      <c r="C170" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="3">
+      <c r="E170" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="3">
+      <c r="F170" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="3">
+      <c r="G170" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="3">
+      <c r="H170" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5082,28 +5106,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="3">
+      <c r="B172" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="3">
+      <c r="C172" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="3">
+      <c r="D172" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="3">
+      <c r="E172" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="3">
+      <c r="F172" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="3">
+      <c r="G172" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="3">
+      <c r="H172" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="3">
+      <c r="I172" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5220,10 +5244,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="3" t="s">
+      <c r="J176" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5267,28 +5291,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="3">
+      <c r="A178" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="3">
+      <c r="B178" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="3">
+      <c r="C178" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="3">
+      <c r="E178" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="3">
+      <c r="F178" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="3">
+      <c r="G178" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="3">
+      <c r="H178" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5313,28 +5337,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="3">
+      <c r="B180" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="3">
+      <c r="C180" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="3">
+      <c r="D180" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="3">
+      <c r="E180" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="3">
+      <c r="F180" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="3">
+      <c r="G180" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="3">
+      <c r="H180" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="3">
+      <c r="I180" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5538,10 +5562,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="3" t="s">
+      <c r="J187" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5585,28 +5609,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="3">
+      <c r="A189" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="3">
+      <c r="B189" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="3">
+      <c r="C189" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="3">
+      <c r="E189" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="3">
+      <c r="F189" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="3">
+      <c r="G189" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="3">
+      <c r="H189" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5631,28 +5655,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="3">
+      <c r="B191" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="3">
+      <c r="C191" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="3">
+      <c r="D191" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="3">
+      <c r="E191" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="3">
+      <c r="F191" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="3">
+      <c r="G191" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="3">
+      <c r="H191" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="3">
+      <c r="I191" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5711,10 +5735,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="3" t="s">
+      <c r="J193" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5758,28 +5782,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="3">
+      <c r="A195" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="3">
+      <c r="B195" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="3">
+      <c r="C195" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="3">
+      <c r="E195" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="3">
+      <c r="F195" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="3">
+      <c r="G195" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="3">
+      <c r="H195" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5804,28 +5828,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="3">
+      <c r="B197" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="3">
+      <c r="C197" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="3">
+      <c r="D197" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="3">
+      <c r="E197" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="3">
+      <c r="F197" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="3">
+      <c r="G197" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="3">
+      <c r="H197" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="3">
+      <c r="I197" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6000,10 +6024,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="3" t="s">
+      <c r="J203" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6047,28 +6071,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="3">
+      <c r="A205" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="3">
+      <c r="B205" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="3">
+      <c r="C205" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="3">
+      <c r="E205" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="3">
+      <c r="F205" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="3">
+      <c r="G205" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="3">
+      <c r="H205" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6093,28 +6117,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="3">
+      <c r="C207" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="3">
+      <c r="D207" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="3">
+      <c r="I207" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6202,10 +6226,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="3" t="s">
+      <c r="J210" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6249,28 +6273,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="3">
+      <c r="A212" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="3">
+      <c r="B212" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="3">
+      <c r="C212" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="3">
+      <c r="E212" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="3">
+      <c r="F212" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="3">
+      <c r="G212" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="3">
+      <c r="H212" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6295,28 +6319,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="3">
+      <c r="C214" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="3">
+      <c r="D214" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="3">
+      <c r="I214" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6404,10 +6428,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="3" t="s">
+      <c r="J217" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6451,28 +6475,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="3">
+      <c r="A219" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="3">
+      <c r="B219" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="3">
+      <c r="C219" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="3">
+      <c r="E219" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="3">
+      <c r="F219" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="3">
+      <c r="G219" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="3">
+      <c r="H219" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6497,28 +6521,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="3">
+      <c r="B221" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="3">
+      <c r="C221" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="3">
+      <c r="D221" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="3">
+      <c r="E221" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="3">
+      <c r="F221" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="3">
+      <c r="G221" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="3">
+      <c r="H221" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="3">
+      <c r="I221" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6606,10 +6630,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="3" t="s">
+      <c r="J224" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6653,28 +6677,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="3">
+      <c r="A226" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="3">
+      <c r="B226" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="3">
+      <c r="C226" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="3">
+      <c r="E226" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="3">
+      <c r="F226" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="3">
+      <c r="G226" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="3">
+      <c r="H226" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6699,28 +6723,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="3">
+      <c r="B228" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="3">
+      <c r="C228" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="3">
+      <c r="D228" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="3">
+      <c r="E228" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="3">
+      <c r="F228" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="3">
+      <c r="G228" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="3">
+      <c r="H228" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="3">
+      <c r="I228" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6779,10 +6803,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="3" t="s">
+      <c r="J230" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6826,28 +6850,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="3">
+      <c r="A232" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="3">
+      <c r="B232" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="3">
+      <c r="C232" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="3">
+      <c r="E232" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="3">
+      <c r="F232" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="3">
+      <c r="G232" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="3">
+      <c r="H232" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6872,28 +6896,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="3">
+      <c r="B234" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="3">
+      <c r="C234" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="3">
+      <c r="D234" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="3">
+      <c r="E234" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="3">
+      <c r="F234" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="3">
+      <c r="G234" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="3">
+      <c r="H234" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="3">
+      <c r="I234" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7010,10 +7034,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="3" t="s">
+      <c r="J238" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7057,28 +7081,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="3">
+      <c r="A240" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="3">
+      <c r="B240" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="3">
+      <c r="C240" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="3">
+      <c r="E240" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="3">
+      <c r="F240" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="3">
+      <c r="G240" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="3">
+      <c r="H240" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7103,28 +7127,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="3">
+      <c r="B242" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="3">
+      <c r="C242" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="3">
+      <c r="D242" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="3">
+      <c r="E242" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="3">
+      <c r="F242" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="3">
+      <c r="G242" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="3">
+      <c r="H242" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="3">
+      <c r="I242" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7241,10 +7265,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="3" t="s">
+      <c r="J246" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
